--- a/week-7-alternatives-python/video7.x-long_movies-blank.xlsx
+++ b/week-7-alternatives-python/video7.x-long_movies-blank.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="150001" iterate="1" iterateCount="50" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2721,7 +2721,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B154" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -4925,7 +4925,7 @@
   <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/week-7-alternatives-python/video7.x-long_movies-blank.xlsx
+++ b/week-7-alternatives-python/video7.x-long_movies-blank.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12200" yWindow="500" windowWidth="16300" windowHeight="15880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12200" yWindow="500" windowWidth="16300" windowHeight="15880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="150001" iterate="1" iterateCount="50" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2721,7 +2721,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B154" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -4924,7 +4924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -9067,90 +9067,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <f>COUNTIF(A:A,"*Alex*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>

--- a/week-7-alternatives-python/video7.x-long_movies-blank.xlsx
+++ b/week-7-alternatives-python/video7.x-long_movies-blank.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12200" yWindow="500" windowWidth="16300" windowHeight="15880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12320" yWindow="760" windowWidth="16300" windowHeight="15880" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="150001" iterate="1" iterateCount="50" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="303">
   <si>
     <t>Actor</t>
   </si>
@@ -930,6 +930,18 @@
   </si>
   <si>
     <t>StdDev of Year</t>
+  </si>
+  <si>
+    <t>Steps to Movie 1</t>
+  </si>
+  <si>
+    <t>Steps from Movie 1</t>
+  </si>
+  <si>
+    <t>Is this Bacon?</t>
+  </si>
+  <si>
+    <t>Step 2</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2733,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B154" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -4922,19 +4934,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4947,8 +4961,14 @@
       <c r="D1" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4963,8 +4983,16 @@
         <f>VLOOKUP(B2,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>VLOOKUP(A2,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="F2" t="e">
+        <f>IF(VLOOKUP(B2,Movie!$A$1:$D$10000,2,FALSE)=0,"-",VLOOKUP(B2,Movie!$A$1:$D$10000,2,FALSE)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4979,8 +5007,12 @@
         <f>VLOOKUP(B3,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f>VLOOKUP(A3,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4995,8 +5027,12 @@
         <f>VLOOKUP(B4,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f>VLOOKUP(A4,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5011,8 +5047,12 @@
         <f>VLOOKUP(B5,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f>VLOOKUP(A5,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5027,8 +5067,12 @@
         <f>VLOOKUP(B6,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f>VLOOKUP(A6,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5043,8 +5087,12 @@
         <f>VLOOKUP(B7,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f>VLOOKUP(A7,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5059,8 +5107,12 @@
         <f>VLOOKUP(B8,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f>VLOOKUP(A8,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5075,8 +5127,12 @@
         <f>VLOOKUP(B9,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f>VLOOKUP(A9,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5091,8 +5147,12 @@
         <f>VLOOKUP(B10,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f>VLOOKUP(A10,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5107,8 +5167,12 @@
         <f>VLOOKUP(B11,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f>VLOOKUP(A11,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5123,8 +5187,12 @@
         <f>VLOOKUP(B12,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
+        <f>VLOOKUP(A12,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5139,8 +5207,12 @@
         <f>VLOOKUP(B13,Movie!A:D,4,FALSE)</f>
         <v>1988</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="str">
+        <f>VLOOKUP(A13,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -5155,8 +5227,12 @@
         <f>VLOOKUP(B14,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="str">
+        <f>VLOOKUP(A14,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5171,8 +5247,12 @@
         <f>VLOOKUP(B15,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="str">
+        <f>VLOOKUP(A15,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5187,8 +5267,12 @@
         <f>VLOOKUP(B16,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="str">
+        <f>VLOOKUP(A16,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5203,8 +5287,12 @@
         <f>VLOOKUP(B17,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="str">
+        <f>VLOOKUP(A17,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5219,8 +5307,12 @@
         <f>VLOOKUP(B18,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f>VLOOKUP(A18,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5235,8 +5327,12 @@
         <f>VLOOKUP(B19,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="str">
+        <f>VLOOKUP(A19,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5251,8 +5347,12 @@
         <f>VLOOKUP(B20,Movie!A:D,4,FALSE)</f>
         <v>1990</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f>VLOOKUP(A20,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5267,8 +5367,12 @@
         <f>VLOOKUP(B21,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f>VLOOKUP(A21,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -5283,8 +5387,12 @@
         <f>VLOOKUP(B22,Movie!A:D,4,FALSE)</f>
         <v>2011</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>VLOOKUP(A22,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -5299,8 +5407,12 @@
         <f>VLOOKUP(B23,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f>VLOOKUP(A23,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5315,8 +5427,12 @@
         <f>VLOOKUP(B24,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f>VLOOKUP(A24,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5331,8 +5447,12 @@
         <f>VLOOKUP(B25,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="str">
+        <f>VLOOKUP(A25,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -5347,8 +5467,12 @@
         <f>VLOOKUP(B26,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="str">
+        <f>VLOOKUP(A26,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5363,8 +5487,12 @@
         <f>VLOOKUP(B27,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="str">
+        <f>VLOOKUP(A27,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5379,8 +5507,12 @@
         <f>VLOOKUP(B28,Movie!A:D,4,FALSE)</f>
         <v>1985</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="str">
+        <f>VLOOKUP(A28,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5395,8 +5527,12 @@
         <f>VLOOKUP(B29,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="str">
+        <f>VLOOKUP(A29,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5411,8 +5547,12 @@
         <f>VLOOKUP(B30,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="str">
+        <f>VLOOKUP(A30,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -5427,8 +5567,12 @@
         <f>VLOOKUP(B31,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="str">
+        <f>VLOOKUP(A31,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -5443,8 +5587,12 @@
         <f>VLOOKUP(B32,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="str">
+        <f>VLOOKUP(A32,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -5459,8 +5607,12 @@
         <f>VLOOKUP(B33,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="str">
+        <f>VLOOKUP(A33,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -5475,8 +5627,12 @@
         <f>VLOOKUP(B34,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="str">
+        <f>VLOOKUP(A34,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -5491,8 +5647,12 @@
         <f>VLOOKUP(B35,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="str">
+        <f>VLOOKUP(A35,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -5507,8 +5667,12 @@
         <f>VLOOKUP(B36,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="str">
+        <f>VLOOKUP(A36,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5523,8 +5687,12 @@
         <f>VLOOKUP(B37,Movie!A:D,4,FALSE)</f>
         <v>1982</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="str">
+        <f>VLOOKUP(A37,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -5539,8 +5707,12 @@
         <f>VLOOKUP(B38,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="str">
+        <f>VLOOKUP(A38,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5555,8 +5727,12 @@
         <f>VLOOKUP(B39,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="str">
+        <f>VLOOKUP(A39,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -5571,8 +5747,12 @@
         <f>VLOOKUP(B40,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="str">
+        <f>VLOOKUP(A40,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -5587,8 +5767,12 @@
         <f>VLOOKUP(B41,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="str">
+        <f>VLOOKUP(A41,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -5603,8 +5787,12 @@
         <f>VLOOKUP(B42,Movie!A:D,4,FALSE)</f>
         <v>1993</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="str">
+        <f>VLOOKUP(A42,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -5619,8 +5807,12 @@
         <f>VLOOKUP(B43,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="str">
+        <f>VLOOKUP(A43,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -5635,8 +5827,12 @@
         <f>VLOOKUP(B44,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="str">
+        <f>VLOOKUP(A44,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -5651,8 +5847,12 @@
         <f>VLOOKUP(B45,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="str">
+        <f>VLOOKUP(A45,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -5667,8 +5867,12 @@
         <f>VLOOKUP(B46,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="str">
+        <f>VLOOKUP(A46,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5683,8 +5887,12 @@
         <f>VLOOKUP(B47,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="str">
+        <f>VLOOKUP(A47,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -5699,8 +5907,12 @@
         <f>VLOOKUP(B48,Movie!A:D,4,FALSE)</f>
         <v>1997</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="str">
+        <f>VLOOKUP(A48,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5715,8 +5927,12 @@
         <f>VLOOKUP(B49,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="str">
+        <f>VLOOKUP(A49,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -5731,8 +5947,12 @@
         <f>VLOOKUP(B50,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="str">
+        <f>VLOOKUP(A50,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -5747,8 +5967,12 @@
         <f>VLOOKUP(B51,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="str">
+        <f>VLOOKUP(A51,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5763,8 +5987,12 @@
         <f>VLOOKUP(B52,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="str">
+        <f>VLOOKUP(A52,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5779,8 +6007,12 @@
         <f>VLOOKUP(B53,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="str">
+        <f>VLOOKUP(A53,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -5795,8 +6027,12 @@
         <f>VLOOKUP(B54,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="str">
+        <f>VLOOKUP(A54,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -5811,8 +6047,12 @@
         <f>VLOOKUP(B55,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="str">
+        <f>VLOOKUP(A55,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -5827,8 +6067,12 @@
         <f>VLOOKUP(B56,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="str">
+        <f>VLOOKUP(A56,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -5843,8 +6087,12 @@
         <f>VLOOKUP(B57,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="str">
+        <f>VLOOKUP(A57,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -5859,8 +6107,12 @@
         <f>VLOOKUP(B58,Movie!A:D,4,FALSE)</f>
         <v>1979</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="str">
+        <f>VLOOKUP(A58,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -5875,8 +6127,12 @@
         <f>VLOOKUP(B59,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="str">
+        <f>VLOOKUP(A59,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -5891,8 +6147,12 @@
         <f>VLOOKUP(B60,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="str">
+        <f>VLOOKUP(A60,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -5907,8 +6167,12 @@
         <f>VLOOKUP(B61,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="str">
+        <f>VLOOKUP(A61,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -5923,8 +6187,12 @@
         <f>VLOOKUP(B62,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="str">
+        <f>VLOOKUP(A62,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -5939,8 +6207,12 @@
         <f>VLOOKUP(B63,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="str">
+        <f>VLOOKUP(A63,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -5955,8 +6227,12 @@
         <f>VLOOKUP(B64,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="str">
+        <f>VLOOKUP(A64,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -5971,8 +6247,12 @@
         <f>VLOOKUP(B65,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="str">
+        <f>VLOOKUP(A65,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -5987,8 +6267,12 @@
         <f>VLOOKUP(B66,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="str">
+        <f>VLOOKUP(A66,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -6003,8 +6287,12 @@
         <f>VLOOKUP(B67,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="str">
+        <f>VLOOKUP(A67,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -6019,8 +6307,12 @@
         <f>VLOOKUP(B68,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="str">
+        <f>VLOOKUP(A68,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -6035,8 +6327,12 @@
         <f>VLOOKUP(B69,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="str">
+        <f>VLOOKUP(A69,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -6051,8 +6347,12 @@
         <f>VLOOKUP(B70,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="str">
+        <f>VLOOKUP(A70,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -6067,8 +6367,12 @@
         <f>VLOOKUP(B71,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="str">
+        <f>VLOOKUP(A71,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -6083,8 +6387,12 @@
         <f>VLOOKUP(B72,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="str">
+        <f>VLOOKUP(A72,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -6099,8 +6407,12 @@
         <f>VLOOKUP(B73,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="str">
+        <f>VLOOKUP(A73,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -6115,8 +6427,12 @@
         <f>VLOOKUP(B74,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="str">
+        <f>VLOOKUP(A74,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -6131,8 +6447,12 @@
         <f>VLOOKUP(B75,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="str">
+        <f>VLOOKUP(A75,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -6147,8 +6467,12 @@
         <f>VLOOKUP(B76,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="str">
+        <f>VLOOKUP(A76,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -6163,8 +6487,12 @@
         <f>VLOOKUP(B77,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="str">
+        <f>VLOOKUP(A77,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -6179,8 +6507,12 @@
         <f>VLOOKUP(B78,Movie!A:D,4,FALSE)</f>
         <v>2011</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="str">
+        <f>VLOOKUP(A78,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -6195,8 +6527,12 @@
         <f>VLOOKUP(B79,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="str">
+        <f>VLOOKUP(A79,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -6211,8 +6547,12 @@
         <f>VLOOKUP(B80,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="str">
+        <f>VLOOKUP(A80,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -6227,8 +6567,12 @@
         <f>VLOOKUP(B81,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="str">
+        <f>VLOOKUP(A81,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -6243,8 +6587,12 @@
         <f>VLOOKUP(B82,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="str">
+        <f>VLOOKUP(A82,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -6259,8 +6607,12 @@
         <f>VLOOKUP(B83,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="str">
+        <f>VLOOKUP(A83,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -6275,8 +6627,12 @@
         <f>VLOOKUP(B84,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="str">
+        <f>VLOOKUP(A84,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -6291,8 +6647,12 @@
         <f>VLOOKUP(B85,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="str">
+        <f>VLOOKUP(A85,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -6307,8 +6667,12 @@
         <f>VLOOKUP(B86,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="str">
+        <f>VLOOKUP(A86,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -6323,8 +6687,12 @@
         <f>VLOOKUP(B87,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="str">
+        <f>VLOOKUP(A87,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -6339,8 +6707,12 @@
         <f>VLOOKUP(B88,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="str">
+        <f>VLOOKUP(A88,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -6355,8 +6727,12 @@
         <f>VLOOKUP(B89,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="str">
+        <f>VLOOKUP(A89,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -6371,8 +6747,12 @@
         <f>VLOOKUP(B90,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="str">
+        <f>VLOOKUP(A90,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -6387,8 +6767,12 @@
         <f>VLOOKUP(B91,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="str">
+        <f>VLOOKUP(A91,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -6403,8 +6787,12 @@
         <f>VLOOKUP(B92,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="str">
+        <f>VLOOKUP(A92,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -6419,8 +6807,12 @@
         <f>VLOOKUP(B93,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="str">
+        <f>VLOOKUP(A93,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -6435,8 +6827,12 @@
         <f>VLOOKUP(B94,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="str">
+        <f>VLOOKUP(A94,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -6451,8 +6847,12 @@
         <f>VLOOKUP(B95,Movie!A:D,4,FALSE)</f>
         <v>1983</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="str">
+        <f>VLOOKUP(A95,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -6467,8 +6867,12 @@
         <f>VLOOKUP(B96,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="str">
+        <f>VLOOKUP(A96,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -6483,8 +6887,12 @@
         <f>VLOOKUP(B97,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="str">
+        <f>VLOOKUP(A97,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -6499,8 +6907,12 @@
         <f>VLOOKUP(B98,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="str">
+        <f>VLOOKUP(A98,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -6515,8 +6927,12 @@
         <f>VLOOKUP(B99,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="str">
+        <f>VLOOKUP(A99,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -6531,8 +6947,12 @@
         <f>VLOOKUP(B100,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="str">
+        <f>VLOOKUP(A100,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -6547,8 +6967,12 @@
         <f>VLOOKUP(B101,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="str">
+        <f>VLOOKUP(A101,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -6563,8 +6987,12 @@
         <f>VLOOKUP(B102,Movie!A:D,4,FALSE)</f>
         <v>1980</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="str">
+        <f>VLOOKUP(A102,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -6579,8 +7007,12 @@
         <f>VLOOKUP(B103,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="str">
+        <f>VLOOKUP(A103,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -6595,8 +7027,12 @@
         <f>VLOOKUP(B104,Movie!A:D,4,FALSE)</f>
         <v>1988</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="str">
+        <f>VLOOKUP(A104,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -6611,8 +7047,12 @@
         <f>VLOOKUP(B105,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="str">
+        <f>VLOOKUP(A105,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -6627,8 +7067,12 @@
         <f>VLOOKUP(B106,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="str">
+        <f>VLOOKUP(A106,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -6643,8 +7087,12 @@
         <f>VLOOKUP(B107,Movie!A:D,4,FALSE)</f>
         <v>1983</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" t="str">
+        <f>VLOOKUP(A107,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -6659,8 +7107,12 @@
         <f>VLOOKUP(B108,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="str">
+        <f>VLOOKUP(A108,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -6675,8 +7127,12 @@
         <f>VLOOKUP(B109,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="str">
+        <f>VLOOKUP(A109,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -6691,8 +7147,12 @@
         <f>VLOOKUP(B110,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" t="str">
+        <f>VLOOKUP(A110,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -6707,8 +7167,12 @@
         <f>VLOOKUP(B111,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" t="str">
+        <f>VLOOKUP(A111,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -6723,8 +7187,12 @@
         <f>VLOOKUP(B112,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" t="str">
+        <f>VLOOKUP(A112,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -6739,8 +7207,12 @@
         <f>VLOOKUP(B113,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" t="str">
+        <f>VLOOKUP(A113,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -6755,8 +7227,12 @@
         <f>VLOOKUP(B114,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" t="str">
+        <f>VLOOKUP(A114,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -6771,8 +7247,12 @@
         <f>VLOOKUP(B115,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" t="str">
+        <f>VLOOKUP(A115,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -6787,8 +7267,12 @@
         <f>VLOOKUP(B116,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" t="str">
+        <f>VLOOKUP(A116,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -6803,8 +7287,12 @@
         <f>VLOOKUP(B117,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" t="str">
+        <f>VLOOKUP(A117,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -6819,8 +7307,12 @@
         <f>VLOOKUP(B118,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" t="str">
+        <f>VLOOKUP(A118,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -6835,8 +7327,12 @@
         <f>VLOOKUP(B119,Movie!A:D,4,FALSE)</f>
         <v>1992</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" t="str">
+        <f>VLOOKUP(A119,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -6851,8 +7347,12 @@
         <f>VLOOKUP(B120,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" t="str">
+        <f>VLOOKUP(A120,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -6867,8 +7367,12 @@
         <f>VLOOKUP(B121,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" t="str">
+        <f>VLOOKUP(A121,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -6883,8 +7387,12 @@
         <f>VLOOKUP(B122,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" t="str">
+        <f>VLOOKUP(A122,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>140</v>
       </c>
@@ -6899,8 +7407,12 @@
         <f>VLOOKUP(B123,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" t="str">
+        <f>VLOOKUP(A123,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -6915,8 +7427,12 @@
         <f>VLOOKUP(B124,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" t="str">
+        <f>VLOOKUP(A124,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -6931,8 +7447,12 @@
         <f>VLOOKUP(B125,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" t="str">
+        <f>VLOOKUP(A125,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -6947,8 +7467,12 @@
         <f>VLOOKUP(B126,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" t="str">
+        <f>VLOOKUP(A126,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -6963,8 +7487,12 @@
         <f>VLOOKUP(B127,Movie!A:D,4,FALSE)</f>
         <v>1996</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" t="str">
+        <f>VLOOKUP(A127,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -6979,8 +7507,12 @@
         <f>VLOOKUP(B128,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" t="str">
+        <f>VLOOKUP(A128,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -6995,8 +7527,12 @@
         <f>VLOOKUP(B129,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" t="str">
+        <f>VLOOKUP(A129,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -7011,8 +7547,12 @@
         <f>VLOOKUP(B130,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" t="str">
+        <f>VLOOKUP(A130,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -7027,8 +7567,12 @@
         <f>VLOOKUP(B131,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" t="str">
+        <f>VLOOKUP(A131,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -7043,8 +7587,12 @@
         <f>VLOOKUP(B132,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" t="str">
+        <f>VLOOKUP(A132,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -7059,8 +7607,12 @@
         <f>VLOOKUP(B133,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" t="str">
+        <f>VLOOKUP(A133,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -7075,8 +7627,12 @@
         <f>VLOOKUP(B134,Movie!A:D,4,FALSE)</f>
         <v>1997</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" t="str">
+        <f>VLOOKUP(A134,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -7091,8 +7647,12 @@
         <f>VLOOKUP(B135,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" t="str">
+        <f>VLOOKUP(A135,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -7107,8 +7667,12 @@
         <f>VLOOKUP(B136,Movie!A:D,4,FALSE)</f>
         <v>1980</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" t="str">
+        <f>VLOOKUP(A136,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -7123,8 +7687,12 @@
         <f>VLOOKUP(B137,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" t="str">
+        <f>VLOOKUP(A137,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -7139,8 +7707,12 @@
         <f>VLOOKUP(B138,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" t="str">
+        <f>VLOOKUP(A138,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -7155,8 +7727,12 @@
         <f>VLOOKUP(B139,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" t="str">
+        <f>VLOOKUP(A139,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -7171,8 +7747,12 @@
         <f>VLOOKUP(B140,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" t="str">
+        <f>VLOOKUP(A140,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -7187,8 +7767,12 @@
         <f>VLOOKUP(B141,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" t="str">
+        <f>VLOOKUP(A141,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -7203,8 +7787,12 @@
         <f>VLOOKUP(B142,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" t="str">
+        <f>VLOOKUP(A142,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -7219,8 +7807,12 @@
         <f>VLOOKUP(B143,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" t="str">
+        <f>VLOOKUP(A143,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -7235,8 +7827,12 @@
         <f>VLOOKUP(B144,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" t="str">
+        <f>VLOOKUP(A144,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -7251,8 +7847,12 @@
         <f>VLOOKUP(B145,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" t="str">
+        <f>VLOOKUP(A145,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -7267,8 +7867,12 @@
         <f>VLOOKUP(B146,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" t="str">
+        <f>VLOOKUP(A146,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -7283,8 +7887,12 @@
         <f>VLOOKUP(B147,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" t="str">
+        <f>VLOOKUP(A147,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -7299,8 +7907,12 @@
         <f>VLOOKUP(B148,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" t="str">
+        <f>VLOOKUP(A148,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -7315,8 +7927,12 @@
         <f>VLOOKUP(B149,Movie!A:D,4,FALSE)</f>
         <v>2013</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" t="str">
+        <f>VLOOKUP(A149,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -7331,8 +7947,12 @@
         <f>VLOOKUP(B150,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" t="str">
+        <f>VLOOKUP(A150,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -7347,8 +7967,12 @@
         <f>VLOOKUP(B151,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" t="str">
+        <f>VLOOKUP(A151,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -7363,8 +7987,12 @@
         <f>VLOOKUP(B152,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" t="str">
+        <f>VLOOKUP(A152,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -7379,8 +8007,12 @@
         <f>VLOOKUP(B153,Movie!A:D,4,FALSE)</f>
         <v>2013</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" t="str">
+        <f>VLOOKUP(A153,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -7395,8 +8027,12 @@
         <f>VLOOKUP(B154,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" t="str">
+        <f>VLOOKUP(A154,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -7411,8 +8047,12 @@
         <f>VLOOKUP(B155,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" t="str">
+        <f>VLOOKUP(A155,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -7427,8 +8067,12 @@
         <f>VLOOKUP(B156,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" t="str">
+        <f>VLOOKUP(A156,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -7443,8 +8087,12 @@
         <f>VLOOKUP(B157,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" t="str">
+        <f>VLOOKUP(A157,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -7459,8 +8107,12 @@
         <f>VLOOKUP(B158,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" t="str">
+        <f>VLOOKUP(A158,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -7475,8 +8127,12 @@
         <f>VLOOKUP(B159,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" t="str">
+        <f>VLOOKUP(A159,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -7491,8 +8147,12 @@
         <f>VLOOKUP(B160,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" t="str">
+        <f>VLOOKUP(A160,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -7507,8 +8167,12 @@
         <f>VLOOKUP(B161,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" t="str">
+        <f>VLOOKUP(A161,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -7523,8 +8187,12 @@
         <f>VLOOKUP(B162,Movie!A:D,4,FALSE)</f>
         <v>1993</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" t="str">
+        <f>VLOOKUP(A162,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -7539,8 +8207,12 @@
         <f>VLOOKUP(B163,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" t="str">
+        <f>VLOOKUP(A163,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -7555,8 +8227,12 @@
         <f>VLOOKUP(B164,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" t="str">
+        <f>VLOOKUP(A164,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -7571,8 +8247,12 @@
         <f>VLOOKUP(B165,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" t="str">
+        <f>VLOOKUP(A165,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -7587,8 +8267,12 @@
         <f>VLOOKUP(B166,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" t="str">
+        <f>VLOOKUP(A166,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -7603,8 +8287,12 @@
         <f>VLOOKUP(B167,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" t="str">
+        <f>VLOOKUP(A167,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -7619,8 +8307,12 @@
         <f>VLOOKUP(B168,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" t="str">
+        <f>VLOOKUP(A168,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -7635,8 +8327,12 @@
         <f>VLOOKUP(B169,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" t="str">
+        <f>VLOOKUP(A169,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -7651,8 +8347,12 @@
         <f>VLOOKUP(B170,Movie!A:D,4,FALSE)</f>
         <v>1989</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" t="str">
+        <f>VLOOKUP(A170,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -7667,8 +8367,12 @@
         <f>VLOOKUP(B171,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" t="str">
+        <f>VLOOKUP(A171,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -7683,8 +8387,12 @@
         <f>VLOOKUP(B172,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" t="str">
+        <f>VLOOKUP(A172,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>183</v>
       </c>
@@ -7699,8 +8407,12 @@
         <f>VLOOKUP(B173,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" t="str">
+        <f>VLOOKUP(A173,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>183</v>
       </c>
@@ -7715,8 +8427,12 @@
         <f>VLOOKUP(B174,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" t="str">
+        <f>VLOOKUP(A174,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -7731,8 +8447,12 @@
         <f>VLOOKUP(B175,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" t="str">
+        <f>VLOOKUP(A175,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>185</v>
       </c>
@@ -7747,8 +8467,12 @@
         <f>VLOOKUP(B176,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" t="str">
+        <f>VLOOKUP(A176,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -7763,8 +8487,12 @@
         <f>VLOOKUP(B177,Movie!A:D,4,FALSE)</f>
         <v>1948</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" t="str">
+        <f>VLOOKUP(A177,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -7779,8 +8507,12 @@
         <f>VLOOKUP(B178,Movie!A:D,4,FALSE)</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" t="str">
+        <f>VLOOKUP(A178,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -7795,8 +8527,12 @@
         <f>VLOOKUP(B179,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" t="str">
+        <f>VLOOKUP(A179,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -7811,8 +8547,12 @@
         <f>VLOOKUP(B180,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" t="str">
+        <f>VLOOKUP(A180,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -7827,8 +8567,12 @@
         <f>VLOOKUP(B181,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" t="str">
+        <f>VLOOKUP(A181,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7843,8 +8587,12 @@
         <f>VLOOKUP(B182,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" t="str">
+        <f>VLOOKUP(A182,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -7859,8 +8607,12 @@
         <f>VLOOKUP(B183,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" t="str">
+        <f>VLOOKUP(A183,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -7875,8 +8627,12 @@
         <f>VLOOKUP(B184,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" t="str">
+        <f>VLOOKUP(A184,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -7891,8 +8647,12 @@
         <f>VLOOKUP(B185,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" t="str">
+        <f>VLOOKUP(A185,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -7907,8 +8667,12 @@
         <f>VLOOKUP(B186,Movie!A:D,4,FALSE)</f>
         <v>2013</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" t="str">
+        <f>VLOOKUP(A186,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -7923,8 +8687,12 @@
         <f>VLOOKUP(B187,Movie!A:D,4,FALSE)</f>
         <v>2011</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" t="str">
+        <f>VLOOKUP(A187,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -7939,8 +8707,12 @@
         <f>VLOOKUP(B188,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" t="str">
+        <f>VLOOKUP(A188,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -7955,8 +8727,12 @@
         <f>VLOOKUP(B189,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" t="str">
+        <f>VLOOKUP(A189,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -7971,8 +8747,12 @@
         <f>VLOOKUP(B190,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" t="str">
+        <f>VLOOKUP(A190,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -7987,8 +8767,12 @@
         <f>VLOOKUP(B191,Movie!A:D,4,FALSE)</f>
         <v>1993</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" t="str">
+        <f>VLOOKUP(A191,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -8003,8 +8787,12 @@
         <f>VLOOKUP(B192,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" t="str">
+        <f>VLOOKUP(A192,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -8019,8 +8807,12 @@
         <f>VLOOKUP(B193,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" t="str">
+        <f>VLOOKUP(A193,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -8035,8 +8827,12 @@
         <f>VLOOKUP(B194,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" t="str">
+        <f>VLOOKUP(A194,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -8051,8 +8847,12 @@
         <f>VLOOKUP(B195,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" t="str">
+        <f>VLOOKUP(A195,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -8067,8 +8867,12 @@
         <f>VLOOKUP(B196,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" t="str">
+        <f>VLOOKUP(A196,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -8083,8 +8887,12 @@
         <f>VLOOKUP(B197,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" t="str">
+        <f>VLOOKUP(A197,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -8099,8 +8907,12 @@
         <f>VLOOKUP(B198,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" t="str">
+        <f>VLOOKUP(A198,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -8115,8 +8927,12 @@
         <f>VLOOKUP(B199,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" t="str">
+        <f>VLOOKUP(A199,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -8131,8 +8947,12 @@
         <f>VLOOKUP(B200,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" t="str">
+        <f>VLOOKUP(A200,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -8147,8 +8967,12 @@
         <f>VLOOKUP(B201,Movie!A:D,4,FALSE)</f>
         <v>1996</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" t="str">
+        <f>VLOOKUP(A201,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -8163,8 +8987,12 @@
         <f>VLOOKUP(B202,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" t="str">
+        <f>VLOOKUP(A202,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -8179,8 +9007,12 @@
         <f>VLOOKUP(B203,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" t="str">
+        <f>VLOOKUP(A203,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -8195,8 +9027,12 @@
         <f>VLOOKUP(B204,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" t="str">
+        <f>VLOOKUP(A204,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -8211,8 +9047,12 @@
         <f>VLOOKUP(B205,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" t="str">
+        <f>VLOOKUP(A205,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -8227,8 +9067,12 @@
         <f>VLOOKUP(B206,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" t="str">
+        <f>VLOOKUP(A206,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>203</v>
       </c>
@@ -8243,8 +9087,12 @@
         <f>VLOOKUP(B207,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" t="str">
+        <f>VLOOKUP(A207,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>203</v>
       </c>
@@ -8259,8 +9107,12 @@
         <f>VLOOKUP(B208,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" t="str">
+        <f>VLOOKUP(A208,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>203</v>
       </c>
@@ -8275,8 +9127,12 @@
         <f>VLOOKUP(B209,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" t="str">
+        <f>VLOOKUP(A209,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>203</v>
       </c>
@@ -8291,8 +9147,12 @@
         <f>VLOOKUP(B210,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" t="str">
+        <f>VLOOKUP(A210,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>204</v>
       </c>
@@ -8307,8 +9167,12 @@
         <f>VLOOKUP(B211,Movie!A:D,4,FALSE)</f>
         <v>1999</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" t="str">
+        <f>VLOOKUP(A211,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>205</v>
       </c>
@@ -8323,8 +9187,12 @@
         <f>VLOOKUP(B212,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" t="str">
+        <f>VLOOKUP(A212,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>206</v>
       </c>
@@ -8339,8 +9207,12 @@
         <f>VLOOKUP(B213,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" t="str">
+        <f>VLOOKUP(A213,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>207</v>
       </c>
@@ -8355,8 +9227,12 @@
         <f>VLOOKUP(B214,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" t="str">
+        <f>VLOOKUP(A214,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>208</v>
       </c>
@@ -8371,8 +9247,12 @@
         <f>VLOOKUP(B215,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" t="str">
+        <f>VLOOKUP(A215,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>208</v>
       </c>
@@ -8387,8 +9267,12 @@
         <f>VLOOKUP(B216,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" t="str">
+        <f>VLOOKUP(A216,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>209</v>
       </c>
@@ -8403,8 +9287,12 @@
         <f>VLOOKUP(B217,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" t="str">
+        <f>VLOOKUP(A217,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>209</v>
       </c>
@@ -8419,8 +9307,12 @@
         <f>VLOOKUP(B218,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" t="str">
+        <f>VLOOKUP(A218,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>211</v>
       </c>
@@ -8435,8 +9327,12 @@
         <f>VLOOKUP(B219,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" t="str">
+        <f>VLOOKUP(A219,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>211</v>
       </c>
@@ -8451,8 +9347,12 @@
         <f>VLOOKUP(B220,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" t="str">
+        <f>VLOOKUP(A220,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>211</v>
       </c>
@@ -8467,8 +9367,12 @@
         <f>VLOOKUP(B221,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" t="str">
+        <f>VLOOKUP(A221,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>214</v>
       </c>
@@ -8483,8 +9387,12 @@
         <f>VLOOKUP(B222,Movie!A:D,4,FALSE)</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" t="str">
+        <f>VLOOKUP(A222,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>214</v>
       </c>
@@ -8499,8 +9407,12 @@
         <f>VLOOKUP(B223,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" t="str">
+        <f>VLOOKUP(A223,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>215</v>
       </c>
@@ -8515,8 +9427,12 @@
         <f>VLOOKUP(B224,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" t="str">
+        <f>VLOOKUP(A224,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>216</v>
       </c>
@@ -8531,8 +9447,12 @@
         <f>VLOOKUP(B225,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" t="str">
+        <f>VLOOKUP(A225,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>217</v>
       </c>
@@ -8547,8 +9467,12 @@
         <f>VLOOKUP(B226,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226" t="str">
+        <f>VLOOKUP(A226,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -8563,8 +9487,12 @@
         <f>VLOOKUP(B227,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" t="str">
+        <f>VLOOKUP(A227,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>217</v>
       </c>
@@ -8579,8 +9507,12 @@
         <f>VLOOKUP(B228,Movie!A:D,4,FALSE)</f>
         <v>1997</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228" t="str">
+        <f>VLOOKUP(A228,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>217</v>
       </c>
@@ -8595,8 +9527,12 @@
         <f>VLOOKUP(B229,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229" t="str">
+        <f>VLOOKUP(A229,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>217</v>
       </c>
@@ -8611,8 +9547,12 @@
         <f>VLOOKUP(B230,Movie!A:D,4,FALSE)</f>
         <v>1987</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" t="str">
+        <f>VLOOKUP(A230,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>218</v>
       </c>
@@ -8627,8 +9567,12 @@
         <f>VLOOKUP(B231,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231" t="str">
+        <f>VLOOKUP(A231,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>218</v>
       </c>
@@ -8643,8 +9587,12 @@
         <f>VLOOKUP(B232,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232" t="str">
+        <f>VLOOKUP(A232,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>219</v>
       </c>
@@ -8659,8 +9607,12 @@
         <f>VLOOKUP(B233,Movie!A:D,4,FALSE)</f>
         <v>1991</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" t="str">
+        <f>VLOOKUP(A233,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>219</v>
       </c>
@@ -8675,8 +9627,12 @@
         <f>VLOOKUP(B234,Movie!A:D,4,FALSE)</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" t="str">
+        <f>VLOOKUP(A234,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>219</v>
       </c>
@@ -8691,8 +9647,12 @@
         <f>VLOOKUP(B235,Movie!A:D,4,FALSE)</f>
         <v>1986</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235" t="str">
+        <f>VLOOKUP(A235,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>222</v>
       </c>
@@ -8707,8 +9667,12 @@
         <f>VLOOKUP(B236,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236" t="str">
+        <f>VLOOKUP(A236,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>223</v>
       </c>
@@ -8723,8 +9687,12 @@
         <f>VLOOKUP(B237,Movie!A:D,4,FALSE)</f>
         <v>1998</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237" t="str">
+        <f>VLOOKUP(A237,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>224</v>
       </c>
@@ -8739,8 +9707,12 @@
         <f>VLOOKUP(B238,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238" t="str">
+        <f>VLOOKUP(A238,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>225</v>
       </c>
@@ -8755,8 +9727,12 @@
         <f>VLOOKUP(B239,Movie!A:D,4,FALSE)</f>
         <v>1989</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" t="str">
+        <f>VLOOKUP(A239,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>226</v>
       </c>
@@ -8771,8 +9747,12 @@
         <f>VLOOKUP(B240,Movie!A:D,4,FALSE)</f>
         <v>1997</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" t="str">
+        <f>VLOOKUP(A240,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>226</v>
       </c>
@@ -8787,8 +9767,12 @@
         <f>VLOOKUP(B241,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" t="str">
+        <f>VLOOKUP(A241,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>227</v>
       </c>
@@ -8803,8 +9787,12 @@
         <f>VLOOKUP(B242,Movie!A:D,4,FALSE)</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" t="str">
+        <f>VLOOKUP(A242,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>228</v>
       </c>
@@ -8819,8 +9807,12 @@
         <f>VLOOKUP(B243,Movie!A:D,4,FALSE)</f>
         <v>1997</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" t="str">
+        <f>VLOOKUP(A243,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>228</v>
       </c>
@@ -8835,8 +9827,12 @@
         <f>VLOOKUP(B244,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" t="str">
+        <f>VLOOKUP(A244,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>229</v>
       </c>
@@ -8851,8 +9847,12 @@
         <f>VLOOKUP(B245,Movie!A:D,4,FALSE)</f>
         <v>1988</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" t="str">
+        <f>VLOOKUP(A245,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>229</v>
       </c>
@@ -8867,8 +9867,12 @@
         <f>VLOOKUP(B246,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" t="str">
+        <f>VLOOKUP(A246,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>229</v>
       </c>
@@ -8883,8 +9887,12 @@
         <f>VLOOKUP(B247,Movie!A:D,4,FALSE)</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" t="str">
+        <f>VLOOKUP(A247,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -8899,8 +9907,12 @@
         <f>VLOOKUP(B248,Movie!A:D,4,FALSE)</f>
         <v>1979</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" t="str">
+        <f>VLOOKUP(A248,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>232</v>
       </c>
@@ -8915,8 +9927,12 @@
         <f>VLOOKUP(B249,Movie!A:D,4,FALSE)</f>
         <v>1990</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249" t="str">
+        <f>VLOOKUP(A249,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>233</v>
       </c>
@@ -8931,8 +9947,12 @@
         <f>VLOOKUP(B250,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" t="str">
+        <f>VLOOKUP(A250,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>234</v>
       </c>
@@ -8947,8 +9967,12 @@
         <f>VLOOKUP(B251,Movie!A:D,4,FALSE)</f>
         <v>1994</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251" t="str">
+        <f>VLOOKUP(A251,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>235</v>
       </c>
@@ -8963,8 +9987,12 @@
         <f>VLOOKUP(B252,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252" t="str">
+        <f>VLOOKUP(A252,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>235</v>
       </c>
@@ -8979,8 +10007,12 @@
         <f>VLOOKUP(B253,Movie!A:D,4,FALSE)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" t="str">
+        <f>VLOOKUP(A253,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>236</v>
       </c>
@@ -8995,8 +10027,12 @@
         <f>VLOOKUP(B254,Movie!A:D,4,FALSE)</f>
         <v>2011</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254" t="str">
+        <f>VLOOKUP(A254,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>237</v>
       </c>
@@ -9011,8 +10047,12 @@
         <f>VLOOKUP(B255,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255" t="str">
+        <f>VLOOKUP(A255,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>237</v>
       </c>
@@ -9027,8 +10067,12 @@
         <f>VLOOKUP(B256,Movie!A:D,4,FALSE)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256" t="str">
+        <f>VLOOKUP(A256,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>238</v>
       </c>
@@ -9043,8 +10087,12 @@
         <f>VLOOKUP(B257,Movie!A:D,4,FALSE)</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257" t="str">
+        <f>VLOOKUP(A257,Actor!$A$1:$D$10000,2,FALSE)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>239</v>
       </c>
@@ -9057,6 +10105,10 @@
       </c>
       <c r="D258" t="str">
         <f>VLOOKUP(B258,Movie!A:D,4,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="E258" t="str">
+        <f>VLOOKUP(A258,Actor!$A$1:$D$10000,2,FALSE)</f>
         <v>-</v>
       </c>
     </row>
@@ -9067,771 +10119,1978 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <f>COUNTIF(A:A,"*Alex*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="str">
+        <f>IF(A2="Kevin Bacon",1,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IFERROR(MIN(B2,VLOOKUP(A2,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="str">
+        <f>IF(A3="Bacon, Kevin",1,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IFERROR(MIN(B3,VLOOKUP(A3,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B67" si="0">IF(A4="Bacon, Kevin",1,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IFERROR(MIN(B4,VLOOKUP(A4,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IFERROR(MIN(B5,VLOOKUP(A5,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IFERROR(MIN(B6,VLOOKUP(A6,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IFERROR(MIN(B7,VLOOKUP(A7,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C8" t="str">
+        <f>IFERROR(MIN(B8,VLOOKUP(A8,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IFERROR(MIN(B9,VLOOKUP(A9,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IFERROR(MIN(B10,VLOOKUP(A10,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>IFERROR(MIN(B11,VLOOKUP(A11,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IFERROR(MIN(B12,VLOOKUP(A12,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IFERROR(MIN(B13,VLOOKUP(A13,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IFERROR(MIN(B14,VLOOKUP(A14,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IFERROR(MIN(B15,VLOOKUP(A15,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IFERROR(MIN(B16,VLOOKUP(A16,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C17" t="str">
+        <f>IFERROR(MIN(B17,VLOOKUP(A17,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IFERROR(MIN(B18,VLOOKUP(A18,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IFERROR(MIN(B19,VLOOKUP(A19,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IFERROR(MIN(B20,VLOOKUP(A20,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IFERROR(MIN(B21,VLOOKUP(A21,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IFERROR(MIN(B22,VLOOKUP(A22,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C23" t="str">
+        <f>IFERROR(MIN(B23,VLOOKUP(A23,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C24" t="str">
+        <f>IFERROR(MIN(B24,VLOOKUP(A24,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IFERROR(MIN(B25,VLOOKUP(A25,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IFERROR(MIN(B26,VLOOKUP(A26,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IFERROR(MIN(B27,VLOOKUP(A27,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IFERROR(MIN(B28,VLOOKUP(A28,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IFERROR(MIN(B29,VLOOKUP(A29,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IFERROR(MIN(B30,VLOOKUP(A30,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IFERROR(MIN(B31,VLOOKUP(A31,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C32" t="str">
+        <f>IFERROR(MIN(B32,VLOOKUP(A32,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C33" t="str">
+        <f>IFERROR(MIN(B33,VLOOKUP(A33,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IFERROR(MIN(B34,VLOOKUP(A34,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IFERROR(MIN(B35,VLOOKUP(A35,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IFERROR(MIN(B36,VLOOKUP(A36,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C37" t="str">
+        <f>IFERROR(MIN(B37,VLOOKUP(A37,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C38" t="str">
+        <f>IFERROR(MIN(B38,VLOOKUP(A38,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C39" t="str">
+        <f>IFERROR(MIN(B39,VLOOKUP(A39,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C40" t="str">
+        <f>IFERROR(MIN(B40,VLOOKUP(A40,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C41" t="str">
+        <f>IFERROR(MIN(B41,VLOOKUP(A41,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C42" t="str">
+        <f>IFERROR(MIN(B42,VLOOKUP(A42,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C43" t="str">
+        <f>IFERROR(MIN(B43,VLOOKUP(A43,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C44" t="str">
+        <f>IFERROR(MIN(B44,VLOOKUP(A44,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C45" t="str">
+        <f>IFERROR(MIN(B45,VLOOKUP(A45,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C46" t="str">
+        <f>IFERROR(MIN(B46,VLOOKUP(A46,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C47" t="str">
+        <f>IFERROR(MIN(B47,VLOOKUP(A47,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C48" t="str">
+        <f>IFERROR(MIN(B48,VLOOKUP(A48,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C49" t="str">
+        <f>IFERROR(MIN(B49,VLOOKUP(A49,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C50" t="str">
+        <f>IFERROR(MIN(B50,VLOOKUP(A50,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C51" t="str">
+        <f>IFERROR(MIN(B51,VLOOKUP(A51,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IFERROR(MIN(B52,VLOOKUP(A52,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C53" t="str">
+        <f>IFERROR(MIN(B53,VLOOKUP(A53,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C54" t="str">
+        <f>IFERROR(MIN(B54,VLOOKUP(A54,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C55" t="str">
+        <f>IFERROR(MIN(B55,VLOOKUP(A55,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C56" t="str">
+        <f>IFERROR(MIN(B56,VLOOKUP(A56,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C57" t="str">
+        <f>IFERROR(MIN(B57,VLOOKUP(A57,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C58" t="str">
+        <f>IFERROR(MIN(B58,VLOOKUP(A58,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C59" t="str">
+        <f>IFERROR(MIN(B59,VLOOKUP(A59,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C60" t="str">
+        <f>IFERROR(MIN(B60,VLOOKUP(A60,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C61" t="str">
+        <f>IFERROR(MIN(B61,VLOOKUP(A61,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C62" t="str">
+        <f>IFERROR(MIN(B62,VLOOKUP(A62,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C63" t="str">
+        <f>IFERROR(MIN(B63,VLOOKUP(A63,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C64" t="str">
+        <f>IFERROR(MIN(B64,VLOOKUP(A64,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C65" t="str">
+        <f>IFERROR(MIN(B65,VLOOKUP(A65,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C66" t="str">
+        <f>IFERROR(MIN(B66,VLOOKUP(A66,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C67" t="str">
+        <f>IFERROR(MIN(B67,VLOOKUP(A67,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B131" si="1">IF(A68="Bacon, Kevin",1,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C68" t="str">
+        <f>IFERROR(MIN(B68,VLOOKUP(A68,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C69" t="str">
+        <f>IFERROR(MIN(B69,VLOOKUP(A69,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C70" t="str">
+        <f>IFERROR(MIN(B70,VLOOKUP(A70,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C71" t="str">
+        <f>IFERROR(MIN(B71,VLOOKUP(A71,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C72" t="str">
+        <f>IFERROR(MIN(B72,VLOOKUP(A72,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C73" t="str">
+        <f>IFERROR(MIN(B73,VLOOKUP(A73,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C74" t="str">
+        <f>IFERROR(MIN(B74,VLOOKUP(A74,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C75" t="str">
+        <f>IFERROR(MIN(B75,VLOOKUP(A75,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C76" t="str">
+        <f>IFERROR(MIN(B76,VLOOKUP(A76,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C77" t="str">
+        <f>IFERROR(MIN(B77,VLOOKUP(A77,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C78" t="str">
+        <f>IFERROR(MIN(B78,VLOOKUP(A78,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C79" t="str">
+        <f>IFERROR(MIN(B79,VLOOKUP(A79,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C80" t="str">
+        <f>IFERROR(MIN(B80,VLOOKUP(A80,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C81" t="str">
+        <f>IFERROR(MIN(B81,VLOOKUP(A81,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C82" t="str">
+        <f>IFERROR(MIN(B82,VLOOKUP(A82,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C83" t="str">
+        <f>IFERROR(MIN(B83,VLOOKUP(A83,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C84" t="str">
+        <f>IFERROR(MIN(B84,VLOOKUP(A84,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C85" t="str">
+        <f>IFERROR(MIN(B85,VLOOKUP(A85,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C86" t="str">
+        <f>IFERROR(MIN(B86,VLOOKUP(A86,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C87" t="str">
+        <f>IFERROR(MIN(B87,VLOOKUP(A87,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C88" t="str">
+        <f>IFERROR(MIN(B88,VLOOKUP(A88,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C89" t="str">
+        <f>IFERROR(MIN(B89,VLOOKUP(A89,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C90" t="str">
+        <f>IFERROR(MIN(B90,VLOOKUP(A90,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C91" t="str">
+        <f>IFERROR(MIN(B91,VLOOKUP(A91,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C92" t="str">
+        <f>IFERROR(MIN(B92,VLOOKUP(A92,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C93" t="str">
+        <f>IFERROR(MIN(B93,VLOOKUP(A93,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C94" t="str">
+        <f>IFERROR(MIN(B94,VLOOKUP(A94,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C95" t="str">
+        <f>IFERROR(MIN(B95,VLOOKUP(A95,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C96" t="str">
+        <f>IFERROR(MIN(B96,VLOOKUP(A96,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C97" t="str">
+        <f>IFERROR(MIN(B97,VLOOKUP(A97,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C98" t="str">
+        <f>IFERROR(MIN(B98,VLOOKUP(A98,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C99" t="str">
+        <f>IFERROR(MIN(B99,VLOOKUP(A99,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C100" t="str">
+        <f>IFERROR(MIN(B100,VLOOKUP(A100,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C101" t="str">
+        <f>IFERROR(MIN(B101,VLOOKUP(A101,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C102" t="str">
+        <f>IFERROR(MIN(B102,VLOOKUP(A102,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C103" t="str">
+        <f>IFERROR(MIN(B103,VLOOKUP(A103,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C104" t="str">
+        <f>IFERROR(MIN(B104,VLOOKUP(A104,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C105" t="str">
+        <f>IFERROR(MIN(B105,VLOOKUP(A105,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C106" t="str">
+        <f>IFERROR(MIN(B106,VLOOKUP(A106,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C107" t="str">
+        <f>IFERROR(MIN(B107,VLOOKUP(A107,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C108" t="str">
+        <f>IFERROR(MIN(B108,VLOOKUP(A108,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C109" t="str">
+        <f>IFERROR(MIN(B109,VLOOKUP(A109,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C110" t="str">
+        <f>IFERROR(MIN(B110,VLOOKUP(A110,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C111" t="str">
+        <f>IFERROR(MIN(B111,VLOOKUP(A111,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C112" t="str">
+        <f>IFERROR(MIN(B112,VLOOKUP(A112,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C113" t="str">
+        <f>IFERROR(MIN(B113,VLOOKUP(A113,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C114" t="str">
+        <f>IFERROR(MIN(B114,VLOOKUP(A114,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C115" t="str">
+        <f>IFERROR(MIN(B115,VLOOKUP(A115,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C116" t="str">
+        <f>IFERROR(MIN(B116,VLOOKUP(A116,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C117" t="str">
+        <f>IFERROR(MIN(B117,VLOOKUP(A117,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C118" t="str">
+        <f>IFERROR(MIN(B118,VLOOKUP(A118,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C119" t="str">
+        <f>IFERROR(MIN(B119,VLOOKUP(A119,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C120" t="str">
+        <f>IFERROR(MIN(B120,VLOOKUP(A120,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C121" t="str">
+        <f>IFERROR(MIN(B121,VLOOKUP(A121,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C122" t="str">
+        <f>IFERROR(MIN(B122,VLOOKUP(A122,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C123" t="str">
+        <f>IFERROR(MIN(B123,VLOOKUP(A123,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C124" t="str">
+        <f>IFERROR(MIN(B124,VLOOKUP(A124,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C125" t="str">
+        <f>IFERROR(MIN(B125,VLOOKUP(A125,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C126" t="str">
+        <f>IFERROR(MIN(B126,VLOOKUP(A126,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C127" t="str">
+        <f>IFERROR(MIN(B127,VLOOKUP(A127,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C128" t="str">
+        <f>IFERROR(MIN(B128,VLOOKUP(A128,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C129" t="str">
+        <f>IFERROR(MIN(B129,VLOOKUP(A129,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C130" t="str">
+        <f>IFERROR(MIN(B130,VLOOKUP(A130,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="C131" t="str">
+        <f>IFERROR(MIN(B131,VLOOKUP(A131,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" t="str">
+        <f t="shared" ref="B132:B151" si="2">IF(A132="Bacon, Kevin",1,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C132" t="str">
+        <f>IFERROR(MIN(B132,VLOOKUP(A132,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C133" t="str">
+        <f>IFERROR(MIN(B133,VLOOKUP(A133,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C134" t="str">
+        <f>IFERROR(MIN(B134,VLOOKUP(A134,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C135" t="str">
+        <f>IFERROR(MIN(B135,VLOOKUP(A135,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C136" t="str">
+        <f>IFERROR(MIN(B136,VLOOKUP(A136,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C137" t="str">
+        <f>IFERROR(MIN(B137,VLOOKUP(A137,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C138" t="str">
+        <f>IFERROR(MIN(B138,VLOOKUP(A138,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C139" t="str">
+        <f>IFERROR(MIN(B139,VLOOKUP(A139,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C140" t="str">
+        <f>IFERROR(MIN(B140,VLOOKUP(A140,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C141" t="str">
+        <f>IFERROR(MIN(B141,VLOOKUP(A141,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C142" t="str">
+        <f>IFERROR(MIN(B142,VLOOKUP(A142,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C143" t="str">
+        <f>IFERROR(MIN(B143,VLOOKUP(A143,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C144" t="str">
+        <f>IFERROR(MIN(B144,VLOOKUP(A144,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C145" t="str">
+        <f>IFERROR(MIN(B145,VLOOKUP(A145,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C146" t="str">
+        <f>IFERROR(MIN(B146,VLOOKUP(A146,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C147" t="str">
+        <f>IFERROR(MIN(B147,VLOOKUP(A147,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C148" t="str">
+        <f>IFERROR(MIN(B148,VLOOKUP(A148,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C149" t="str">
+        <f>IFERROR(MIN(B149,VLOOKUP(A149,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C150" t="str">
+        <f>IFERROR(MIN(B150,VLOOKUP(A150,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>239</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="C151" t="str">
+        <f>IFERROR(MIN(B151,VLOOKUP(A151,Movie_Actor!$A$1:$D$10000,6,FALSE)),"-")</f>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -9843,8 +12102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
